--- a/DataDriverFramework/target/test-classes/excel/testdata.xlsx
+++ b/DataDriverFramework/target/test-classes/excel/testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agsuser\Documents\workspace-spring-tool-suite-4-4.7.1.RELEASE\DataDriverFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agsuser\git\DataDrivenW2A\DataDriverFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65E4791-F47F-4DA3-B3C1-93A4BB80DDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C967D-2BE2-413F-BDE2-835AA31CA2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{6BDA1FAF-6D53-48F6-B85F-5880B690F1CF}"/>
+    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15840" xr2:uid="{27E9809B-1198-43B7-A29D-1B2E0F9BF7DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +22,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Anurag</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>A234wd</t>
+  </si>
+  <si>
+    <t>alerttext</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,13 +399,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F2EA0A-4053-4DDC-B16F-B4D761541A88}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244FC9D4-0C43-4624-838C-97A6683A3099}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>